--- a/Final_Expanded_Country_State_City_Coordinates.xlsx
+++ b/Final_Expanded_Country_State_City_Coordinates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jase2188\Documents\GitHub\MetadataProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF215E7C-0667-3F4E-9CA7-A41A753C7F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFEB914-C71E-4A05-870F-5F65A85093B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="1013">
   <si>
     <t>ES_Country</t>
   </si>
@@ -3005,13 +3005,67 @@
   </si>
   <si>
     <t>19.983333,-102.283333</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Berlín</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estados Unidos </t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Escocia</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States </t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo México </t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Virginia Occidental</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3025,6 +3079,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3063,11 +3123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3086,9 +3147,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3126,9 +3187,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3161,9 +3222,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3196,9 +3274,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3374,13 +3469,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="H172" sqref="H172"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3403,7 +3496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3426,7 +3519,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3449,7 +3542,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3472,7 +3565,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3495,7 +3588,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3518,7 +3611,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3541,7 +3634,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3564,7 +3657,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3587,7 +3680,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3610,7 +3703,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3633,7 +3726,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3656,7 +3749,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -3679,7 +3772,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -3702,7 +3795,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -3725,7 +3818,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3748,7 +3841,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3771,7 +3864,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3794,7 +3887,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3817,7 +3910,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -3840,7 +3933,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3863,10 +3956,22 @@
         <v>594</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>995</v>
+      </c>
       <c r="C22" t="s">
         <v>146</v>
       </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>995</v>
+      </c>
       <c r="F22" t="s">
         <v>146</v>
       </c>
@@ -3874,7 +3979,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -3897,7 +4002,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3920,7 +4025,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -3943,7 +4048,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3966,7 +4071,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -3989,7 +4094,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -4012,10 +4117,22 @@
         <v>601</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>996</v>
+      </c>
       <c r="C29" t="s">
         <v>153</v>
       </c>
+      <c r="D29" t="s">
+        <v>534</v>
+      </c>
+      <c r="E29" t="s">
+        <v>997</v>
+      </c>
       <c r="F29" t="s">
         <v>561</v>
       </c>
@@ -4023,7 +4140,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -4046,10 +4163,22 @@
         <v>603</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1001</v>
+      </c>
       <c r="C31" t="s">
         <v>155</v>
       </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1001</v>
+      </c>
       <c r="F31" t="s">
         <v>155</v>
       </c>
@@ -4057,7 +4186,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -4080,7 +4209,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -4103,7 +4232,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4126,7 +4255,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -4149,7 +4278,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -4172,7 +4301,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -4195,7 +4324,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4218,10 +4347,22 @@
         <v>611</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>998</v>
+      </c>
       <c r="C39" t="s">
         <v>163</v>
       </c>
+      <c r="D39" t="s">
+        <v>534</v>
+      </c>
+      <c r="E39" t="s">
+        <v>998</v>
+      </c>
       <c r="F39" t="s">
         <v>163</v>
       </c>
@@ -4229,10 +4370,22 @@
         <v>612</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>999</v>
+      </c>
       <c r="C40" t="s">
         <v>164</v>
       </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>999</v>
+      </c>
       <c r="F40" t="s">
         <v>164</v>
       </c>
@@ -4240,7 +4393,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -4263,7 +4416,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4286,7 +4439,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4309,7 +4462,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4332,7 +4485,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4355,7 +4508,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -4378,7 +4531,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -4401,7 +4554,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -4424,7 +4577,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -4447,7 +4600,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -4470,7 +4623,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -4493,7 +4646,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -4516,7 +4669,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -4539,7 +4692,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -4562,7 +4715,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -4585,7 +4738,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -4608,7 +4761,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -4631,7 +4784,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -4654,7 +4807,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -4677,7 +4830,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -4700,7 +4853,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -4723,7 +4876,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -4746,7 +4899,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -4769,7 +4922,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -4792,7 +4945,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -4815,7 +4968,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -4838,7 +4991,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -4861,7 +5014,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -4884,7 +5037,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -4907,7 +5060,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -4930,7 +5083,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -4953,7 +5106,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -4976,7 +5129,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -4999,7 +5152,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -5022,7 +5175,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -5045,7 +5198,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -5068,7 +5221,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -5091,7 +5244,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -5114,7 +5267,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -5137,7 +5290,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -5160,7 +5313,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -5183,7 +5336,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -5206,7 +5359,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -5229,7 +5382,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -5252,7 +5405,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -5275,7 +5428,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -5298,7 +5451,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -5321,7 +5474,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -5344,7 +5497,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -5367,7 +5520,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -5390,7 +5543,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -5413,7 +5566,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -5436,7 +5589,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -5459,7 +5612,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -5482,7 +5635,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -5505,7 +5658,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -5528,7 +5681,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -5551,10 +5704,16 @@
         <v>670</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
       <c r="C98" t="s">
         <v>217</v>
       </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
       <c r="F98" t="s">
         <v>217</v>
       </c>
@@ -5562,7 +5721,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -5585,7 +5744,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -5608,7 +5767,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -5631,7 +5790,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -5654,7 +5813,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -5677,7 +5836,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -5700,7 +5859,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -5723,7 +5882,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -5746,7 +5905,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -5769,7 +5928,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -5792,7 +5951,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -5815,7 +5974,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -5838,7 +5997,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -5861,7 +6020,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -5884,7 +6043,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -5907,7 +6066,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -5930,7 +6089,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -5953,7 +6112,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -5976,7 +6135,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -5999,7 +6158,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -6022,7 +6181,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -6045,7 +6204,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -6068,7 +6227,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -6091,7 +6250,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -6114,7 +6273,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -6137,7 +6296,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -6160,7 +6319,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -6183,7 +6342,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -6206,7 +6365,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -6229,7 +6388,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -6252,7 +6411,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -6275,7 +6434,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -6298,7 +6457,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -6321,7 +6480,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -6344,7 +6503,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -6367,7 +6526,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -6390,7 +6549,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -6413,7 +6572,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -6436,7 +6595,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -6459,7 +6618,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -6482,7 +6641,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -6505,7 +6664,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -6528,7 +6687,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -6551,10 +6710,16 @@
         <v>712</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1002</v>
+      </c>
       <c r="C142" t="s">
         <v>259</v>
       </c>
+      <c r="D142" t="s">
+        <v>1003</v>
+      </c>
       <c r="F142" t="s">
         <v>565</v>
       </c>
@@ -6562,7 +6727,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -6585,7 +6750,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -6608,7 +6773,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -6631,7 +6796,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -6654,7 +6819,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -6677,7 +6842,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -6700,7 +6865,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -6723,7 +6888,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -6746,7 +6911,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -6769,10 +6934,16 @@
         <v>722</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
       <c r="C152" t="s">
         <v>268</v>
       </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
       <c r="F152" t="s">
         <v>268</v>
       </c>
@@ -6780,7 +6951,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -6803,7 +6974,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -6826,10 +6997,22 @@
         <v>725</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1004</v>
+      </c>
       <c r="C155" t="s">
         <v>269</v>
       </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1004</v>
+      </c>
       <c r="F155" t="s">
         <v>269</v>
       </c>
@@ -6837,7 +7020,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -6860,7 +7043,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -6883,7 +7066,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -6906,7 +7089,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -6929,7 +7112,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -6952,7 +7135,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -6975,7 +7158,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -6998,7 +7181,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -7021,7 +7204,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -7044,7 +7227,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -7067,10 +7250,22 @@
         <v>736</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B166" t="s">
+        <v>89</v>
+      </c>
       <c r="C166" t="s">
         <v>279</v>
       </c>
+      <c r="D166" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E166" t="s">
+        <v>89</v>
+      </c>
       <c r="F166" t="s">
         <v>279</v>
       </c>
@@ -7078,10 +7273,22 @@
         <v>737</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1006</v>
+      </c>
       <c r="C167" t="s">
         <v>280</v>
       </c>
+      <c r="D167" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1006</v>
+      </c>
       <c r="F167" t="s">
         <v>280</v>
       </c>
@@ -7089,10 +7296,22 @@
         <v>738</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B168" t="s">
+        <v>995</v>
+      </c>
       <c r="C168" t="s">
         <v>281</v>
       </c>
+      <c r="D168" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E168" t="s">
+        <v>995</v>
+      </c>
       <c r="F168" t="s">
         <v>281</v>
       </c>
@@ -7100,7 +7319,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -7123,7 +7342,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -7146,7 +7365,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -7169,7 +7388,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -7192,7 +7411,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -7215,7 +7434,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -7238,7 +7457,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -7261,7 +7480,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -7284,7 +7503,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -7307,7 +7526,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -7330,7 +7549,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -7353,7 +7572,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -7376,7 +7595,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -7399,7 +7618,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -7422,7 +7641,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -7445,7 +7664,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -7468,7 +7687,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -7491,7 +7710,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -7514,7 +7733,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -7537,7 +7756,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -7560,7 +7779,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -7583,7 +7802,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -7606,7 +7825,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -7629,7 +7848,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -7652,7 +7871,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -7675,7 +7894,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -7698,7 +7917,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -7721,7 +7940,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -7744,7 +7963,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -7767,7 +7986,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -7790,7 +8009,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -7813,7 +8032,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -7836,7 +8055,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -7856,7 +8075,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -7879,7 +8098,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -7902,7 +8121,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -7925,7 +8144,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -7948,7 +8167,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -7971,7 +8190,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -7994,7 +8213,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -8017,7 +8236,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>16</v>
       </c>
@@ -8040,7 +8259,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -8063,10 +8282,22 @@
         <v>779</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>16</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1007</v>
+      </c>
       <c r="C211" t="s">
         <v>322</v>
       </c>
+      <c r="D211" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1007</v>
+      </c>
       <c r="F211" t="s">
         <v>567</v>
       </c>
@@ -8074,7 +8305,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -8097,7 +8328,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -8120,7 +8351,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -8143,7 +8374,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -8166,7 +8397,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -8189,7 +8420,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -8212,7 +8443,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -8235,7 +8466,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -8258,7 +8489,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -8281,7 +8512,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -8304,7 +8535,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -8327,10 +8558,22 @@
         <v>791</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1008</v>
+      </c>
       <c r="C223" t="s">
         <v>334</v>
       </c>
+      <c r="D223" t="s">
+        <v>532</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1008</v>
+      </c>
       <c r="F223" t="s">
         <v>568</v>
       </c>
@@ -8338,7 +8581,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -8361,7 +8604,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -8384,7 +8627,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>16</v>
       </c>
@@ -8407,7 +8650,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -8430,7 +8673,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -8453,7 +8696,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -8476,7 +8719,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -8499,7 +8742,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>10</v>
       </c>
@@ -8522,7 +8765,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -8545,7 +8788,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -8568,7 +8811,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -8591,7 +8834,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -8614,7 +8857,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -8637,7 +8880,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -8660,7 +8903,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -8683,7 +8926,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -8706,7 +8949,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -8729,7 +8972,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -8752,7 +8995,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -8775,7 +9018,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -8798,10 +9041,22 @@
         <v>811</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1009</v>
+      </c>
       <c r="C244" t="s">
         <v>354</v>
       </c>
+      <c r="D244" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244" t="s">
+        <v>30</v>
+      </c>
       <c r="F244" t="s">
         <v>354</v>
       </c>
@@ -8809,7 +9064,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -8832,7 +9087,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -8855,7 +9110,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>10</v>
       </c>
@@ -8878,7 +9133,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>18</v>
       </c>
@@ -8901,7 +9156,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -8924,7 +9179,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -8947,7 +9202,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -8970,7 +9225,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>19</v>
       </c>
@@ -8993,7 +9248,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -9016,7 +9271,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -9039,7 +9294,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>20</v>
       </c>
@@ -9062,7 +9317,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -9085,7 +9340,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>21</v>
       </c>
@@ -9108,7 +9363,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -9131,7 +9386,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -9154,7 +9409,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -9177,7 +9432,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -9200,7 +9455,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>18</v>
       </c>
@@ -9223,7 +9478,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -9246,7 +9501,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -9269,7 +9524,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -9292,7 +9547,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -9315,7 +9570,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -9338,7 +9593,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>16</v>
       </c>
@@ -9361,7 +9616,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>8</v>
       </c>
@@ -9384,7 +9639,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>7</v>
       </c>
@@ -9407,7 +9662,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>8</v>
       </c>
@@ -9430,7 +9685,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -9453,7 +9708,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -9476,7 +9731,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -9499,7 +9754,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -9522,7 +9777,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -9545,7 +9800,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>8</v>
       </c>
@@ -9568,7 +9823,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -9591,7 +9846,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -9614,7 +9869,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>8</v>
       </c>
@@ -9637,10 +9892,22 @@
         <v>848</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1001</v>
+      </c>
       <c r="C281" t="s">
         <v>389</v>
       </c>
+      <c r="D281" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1001</v>
+      </c>
       <c r="F281" t="s">
         <v>389</v>
       </c>
@@ -9648,7 +9915,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>8</v>
       </c>
@@ -9671,7 +9938,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -9694,7 +9961,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>10</v>
       </c>
@@ -9717,7 +9984,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -9740,10 +10007,22 @@
         <v>853</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>1011</v>
+      </c>
       <c r="C286" t="s">
         <v>393</v>
       </c>
+      <c r="D286" t="s">
+        <v>7</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>1010</v>
+      </c>
       <c r="F286" t="s">
         <v>393</v>
       </c>
@@ -9751,7 +10030,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>8</v>
       </c>
@@ -9774,7 +10053,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -9797,7 +10076,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -9820,7 +10099,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -9843,7 +10122,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -9866,7 +10145,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>7</v>
       </c>
@@ -9889,7 +10168,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -9912,7 +10191,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -9935,7 +10214,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -9958,7 +10237,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -9981,7 +10260,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -10004,10 +10283,22 @@
         <v>864</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1012</v>
+      </c>
       <c r="C298" t="s">
         <v>405</v>
       </c>
+      <c r="D298" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1012</v>
+      </c>
       <c r="F298" t="s">
         <v>405</v>
       </c>
@@ -10015,7 +10306,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -10038,7 +10329,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -10061,7 +10352,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -10084,7 +10375,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -10107,7 +10398,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -10130,10 +10421,22 @@
         <v>870</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B304" t="s">
+        <v>995</v>
+      </c>
       <c r="C304" t="s">
         <v>411</v>
       </c>
+      <c r="D304" t="s">
+        <v>7</v>
+      </c>
+      <c r="E304" t="s">
+        <v>995</v>
+      </c>
       <c r="F304" t="s">
         <v>411</v>
       </c>
@@ -10141,7 +10444,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -10164,7 +10467,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>8</v>
       </c>
@@ -10187,7 +10490,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -10210,7 +10513,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>8</v>
       </c>
@@ -10233,7 +10536,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -10256,7 +10559,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>18</v>
       </c>
@@ -10279,7 +10582,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -10302,7 +10605,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>22</v>
       </c>
@@ -10325,7 +10628,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -10348,7 +10651,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>7</v>
       </c>
@@ -10371,10 +10674,22 @@
         <v>881</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B315" t="s">
+        <v>87</v>
+      </c>
       <c r="C315" t="s">
         <v>421</v>
       </c>
+      <c r="D315" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315" t="s">
+        <v>87</v>
+      </c>
       <c r="F315" t="s">
         <v>421</v>
       </c>
@@ -10382,7 +10697,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -10405,7 +10720,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>7</v>
       </c>
@@ -10428,7 +10743,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -10451,7 +10766,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -10474,7 +10789,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -10497,7 +10812,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>21</v>
       </c>
@@ -10520,7 +10835,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -10543,7 +10858,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>23</v>
       </c>
@@ -10566,7 +10881,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -10589,7 +10904,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>7</v>
       </c>
@@ -10612,7 +10927,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -10635,7 +10950,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -10658,7 +10973,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -10681,7 +10996,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -10704,7 +11019,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>8</v>
       </c>
@@ -10727,7 +11042,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -10750,7 +11065,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>8</v>
       </c>
@@ -10773,7 +11088,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>8</v>
       </c>
@@ -10796,7 +11111,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -10819,7 +11134,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>7</v>
       </c>
@@ -10842,7 +11157,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -10865,7 +11180,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -10888,7 +11203,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>8</v>
       </c>
@@ -10911,7 +11226,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -10934,7 +11249,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -10957,7 +11272,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -10980,7 +11295,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>24</v>
       </c>
@@ -11003,7 +11318,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -11026,7 +11341,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -11049,7 +11364,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -11072,7 +11387,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>8</v>
       </c>
@@ -11095,7 +11410,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>8</v>
       </c>
@@ -11118,10 +11433,16 @@
         <v>912</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>14</v>
+      </c>
       <c r="C348" t="s">
         <v>452</v>
       </c>
+      <c r="D348" t="s">
+        <v>14</v>
+      </c>
       <c r="F348" t="s">
         <v>452</v>
       </c>
@@ -11129,7 +11450,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -11152,7 +11473,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>8</v>
       </c>
@@ -11175,7 +11496,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>8</v>
       </c>
@@ -11198,7 +11519,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -11221,7 +11542,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C353" t="s">
         <v>457</v>
       </c>
@@ -11232,7 +11553,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>7</v>
       </c>
@@ -11255,7 +11576,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -11278,7 +11599,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -11301,7 +11622,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>7</v>
       </c>
@@ -11324,10 +11645,16 @@
         <v>922</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>14</v>
+      </c>
       <c r="C358" t="s">
         <v>462</v>
       </c>
+      <c r="D358" t="s">
+        <v>14</v>
+      </c>
       <c r="F358" t="s">
         <v>462</v>
       </c>
@@ -11335,7 +11662,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>8</v>
       </c>
@@ -11358,7 +11685,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -11381,7 +11708,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>8</v>
       </c>
@@ -11404,7 +11731,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -11427,7 +11754,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -11450,7 +11777,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>8</v>
       </c>
@@ -11473,7 +11800,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>25</v>
       </c>
@@ -11496,7 +11823,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>8</v>
       </c>
@@ -11519,7 +11846,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>26</v>
       </c>
@@ -11542,7 +11869,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>7</v>
       </c>
@@ -11565,7 +11892,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -11588,7 +11915,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>7</v>
       </c>
@@ -11611,7 +11938,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>7</v>
       </c>
@@ -11634,7 +11961,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>7</v>
       </c>
@@ -11657,7 +11984,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -11680,7 +12007,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>16</v>
       </c>
@@ -11703,7 +12030,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>27</v>
       </c>
@@ -11726,7 +12053,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>7</v>
       </c>
@@ -11749,7 +12076,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>8</v>
       </c>
@@ -11772,10 +12099,16 @@
         <v>940</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>14</v>
+      </c>
       <c r="C378" t="s">
         <v>480</v>
       </c>
+      <c r="D378" t="s">
+        <v>14</v>
+      </c>
       <c r="F378" t="s">
         <v>480</v>
       </c>
@@ -11783,7 +12116,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>7</v>
       </c>
@@ -11806,7 +12139,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -11829,7 +12162,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>7</v>
       </c>
@@ -11852,7 +12185,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>7</v>
       </c>
@@ -11875,7 +12208,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>7</v>
       </c>
@@ -11898,7 +12231,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -11921,7 +12254,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -11944,7 +12277,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>7</v>
       </c>
@@ -11967,7 +12300,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>7</v>
       </c>
@@ -11990,7 +12323,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>7</v>
       </c>
@@ -12013,7 +12346,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>7</v>
       </c>
@@ -12036,7 +12369,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>7</v>
       </c>
@@ -12059,7 +12392,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>7</v>
       </c>
@@ -12082,7 +12415,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>28</v>
       </c>
@@ -12105,7 +12438,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -12128,7 +12461,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>7</v>
       </c>
@@ -12151,7 +12484,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>7</v>
       </c>
@@ -12174,7 +12507,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>7</v>
       </c>
@@ -12197,7 +12530,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>19</v>
       </c>
@@ -12220,7 +12553,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>8</v>
       </c>
@@ -12243,7 +12576,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>7</v>
       </c>
@@ -12266,7 +12599,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>7</v>
       </c>
@@ -12289,7 +12622,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -12312,7 +12645,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>8</v>
       </c>
@@ -12335,7 +12668,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -12358,7 +12691,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>8</v>
       </c>
@@ -12381,7 +12714,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -12404,7 +12737,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>8</v>
       </c>
@@ -12427,7 +12760,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -12450,7 +12783,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -12473,7 +12806,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -12496,7 +12829,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -12519,7 +12852,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>8</v>
       </c>
@@ -12542,7 +12875,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>8</v>
       </c>
@@ -12565,7 +12898,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>10</v>
       </c>
@@ -12588,7 +12921,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>7</v>
       </c>
@@ -12611,10 +12944,16 @@
         <v>976</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>21</v>
+      </c>
       <c r="C415" t="s">
         <v>514</v>
       </c>
+      <c r="D415" t="s">
+        <v>538</v>
+      </c>
       <c r="F415" t="s">
         <v>574</v>
       </c>
@@ -12622,7 +12961,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -12645,7 +12984,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>21</v>
       </c>
@@ -12668,7 +13007,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -12691,7 +13030,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>8</v>
       </c>
@@ -12714,7 +13053,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>7</v>
       </c>
@@ -12737,7 +13076,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>8</v>
       </c>
@@ -12760,7 +13099,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -12783,7 +13122,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -12806,7 +13145,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -12829,7 +13168,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>7</v>
       </c>
@@ -12852,7 +13191,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -12875,7 +13214,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>7</v>
       </c>
@@ -12898,7 +13237,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>29</v>
       </c>
@@ -12921,7 +13260,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>27</v>
       </c>
@@ -12944,7 +13283,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>27</v>
       </c>
@@ -12967,7 +13306,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>8</v>
       </c>
@@ -12990,7 +13329,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>8</v>
       </c>
@@ -13013,7 +13352,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>8</v>
       </c>
